--- a/newДЗ2.xlsx
+++ b/newДЗ2.xlsx
@@ -134,8 +134,8 @@
       <c r="B2" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.5490716333494366</v>
+      <c r="C2" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
@@ -146,13 +146,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.08575586070772259</v>
+        <v>-1.1141932403305632</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5981925273873964</v>
+        <v>3.373513202122208</v>
       </c>
       <c r="D3" t="n">
-        <v>2.2377693211459815</v>
+        <v>2.0327499759029832</v>
       </c>
     </row>
     <row r="4">
@@ -160,13 +160,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5618782570667403</v>
+        <v>0.904030445366414</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2088419802184494</v>
+        <v>1.981358212457874</v>
       </c>
       <c r="D4" t="n">
-        <v>3.0187694628076245</v>
+        <v>3.070193434864484</v>
       </c>
     </row>
     <row r="5">
@@ -174,13 +174,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>1.9783054874278605</v>
+        <v>4.3670364614701445</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8995421954413824</v>
+        <v>10.142335160280286</v>
       </c>
       <c r="D5" t="n">
-        <v>14.539280728964417</v>
+        <v>17.30116104178245</v>
       </c>
     </row>
     <row r="6">
@@ -188,13 +188,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>0.010352502365498943</v>
+        <v>0.3113173809102615</v>
       </c>
       <c r="C6" t="n">
-        <v>0.29473446657327257</v>
+        <v>-0.3437528899326518</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01230734702769087</v>
+        <v>-1.060811829738471</v>
       </c>
     </row>
     <row r="7">
@@ -216,13 +216,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>6.552068306815342</v>
+        <v>0.8113767097511763</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3491216801563302</v>
+        <v>0.5873278371080457</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3490083335585663</v>
+        <v>1.51036451666942</v>
       </c>
     </row>
     <row r="9">
@@ -230,13 +230,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>0.17904962958694273</v>
+        <v>-0.9640888247048582</v>
       </c>
       <c r="C9" t="n">
-        <v>0.632868465083388</v>
+        <v>3.7024961674089982</v>
       </c>
       <c r="D9" t="n">
-        <v>2.739003132956161</v>
+        <v>2.542522178554213</v>
       </c>
     </row>
     <row r="10">
@@ -244,13 +244,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.007537908171497548</v>
+        <v>-1.2642976559562682</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5635165896914047</v>
+        <v>3.0445302368354175</v>
       </c>
       <c r="D10" t="n">
-        <v>1.7365355093358021</v>
+        <v>1.5229777732517533</v>
       </c>
     </row>
     <row r="11">
@@ -258,13 +258,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>0.315707175764358</v>
+        <v>0.8172710461493968</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04361497270156321</v>
+        <v>3.9257803660742616</v>
       </c>
       <c r="D11" t="n">
-        <v>9.112969069579835</v>
+        <v>9.42608772748498</v>
       </c>
     </row>
     <row r="12">
@@ -272,13 +272,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9832735722884536</v>
+        <v>1.5697745019048557</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9917113389539829</v>
+        <v>9.204857731758798</v>
       </c>
       <c r="D12" t="n">
-        <v>10.625527530777841</v>
+        <v>10.685801871468678</v>
       </c>
     </row>
     <row r="13">
@@ -286,13 +286,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.9950319151394069</v>
+        <v>-2.7972619595652883</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09216914351260054</v>
+        <v>-0.9374774285214871</v>
       </c>
       <c r="D13" t="n">
-        <v>-3.9137531981865763</v>
+        <v>-6.615359170313772</v>
       </c>
     </row>
   </sheetData>
